--- a/NCAA/Men/Football.xlsx
+++ b/NCAA/Men/Football.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengjiahao\Desktop\Athlete\NCAA\Men\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\northing\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A3044A-F20A-4B4C-AD47-93603CB114A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE132375-D0B3-4715-B0F6-864D56F99877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33360" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
+  <si>
+    <t>NCAA-Standing</t>
+  </si>
+  <si>
+    <t>NCAA Team(s)</t>
+  </si>
   <si>
     <t>MWC Champion</t>
   </si>
   <si>
-    <t>NCAA Team(s)</t>
-  </si>
-  <si>
-    <t>NCAA-Standing</t>
-  </si>
-  <si>
     <t>Lake Forest</t>
   </si>
   <si>
@@ -72,7 +72,7 @@
     <t>2,1</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Total Round</t>
   </si>
 </sst>
 </file>
@@ -108,8 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -391,338 +390,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2010</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2009</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2007</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2006</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2005</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2004</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2003</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
+      <c r="E23">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
